--- a/products_scrap_data.xlsx
+++ b/products_scrap_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +547,633 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://shop.adidas.jp/products/IA4776/</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>['iconArrowCircleLeft戻る', 'トップ', 'メンズ', 'ウェア・服', 'トップス', 'ジャージ', 'オリジナルス', 'ベッケンバウアー', 'アディカラー クラシック', 'アディカラークラシックス ベッケンバウアー トラックジャケット']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['https://shop.adidas.jp/products/IA4776/', 'https://shop.adidas.jp/products/IA4776/', 'https://shop.adidas.jp/products/IA4776/', 'https://shop.adidas.jp/products/IA4776/', 'https://shop.adidas.jp/products/IA4776/', 'https://shop.adidas.jp/products/IA4776/']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'category_name': 'オリジナルス', 'product_name': 'アディカラークラシックス ベッケンバウアー トラックジャケット', 'product_price': '11,000', 'available_sizes': ['XS', 'S', 'M', 'L', 'XL', '2XL', '3XL']}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{'description_title': 'リサイクル素材と再生可能素材を一部使用した、クラシックなトラックジャケット。', 'general_description': '歴史が正しい方向に向かう時もある。アディダスのアーカイブモデルを復刻したこのシグネチャートラックジャケットは、タイムレスなルックス。とびきりソフトなコットン混紡素材を使用したスリムフィットの作りだから、毎日でも着たくなるはず。おすすめのポイントは、スポーティーなスタイルを強調するスタンドカラー。リサイクル素材と再生可能素材をブレンドした生地を70%以上使用したウェア。', 'general_itemization_description': ['スリムフィット', 'ダブルフルジップの前開き / スタンドカラー', '綿52% / リサイクルポリエステル48%（ダブルニット）', '両サイドにジップポケット', 'リブ仕上げの袖口と裾', '商品番号：IA4776', '色：ナイトインディゴ', '生産国：Cambodia']}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{'胸囲': {'XS': '95cm', 'S': '98cm', 'M': '103cm', 'L': '105cm', 'XL': '110cm', '2XL': '116cm', '3XL': '123cm'}, 'うしろ着丈': {'XS': '64cm', 'S': '65cm', 'M': '66cm', 'L': '66cm', 'XL': '67cm', '2XL': '69cm', '3XL': '70cm'}, '袖丈': {'XS': '64cm', 'S': '64cm', 'M': '64cm', 'L': '64cm', 'XL': '64cm', '2XL': '64cm', '3XL': '64cm'}, '袖口幅': {'XS': '19cm', 'S': '19cm', 'M': '20cm', 'L': '20cm', 'XL': '20cm', '2XL': '20cm', '3XL': '21cm'}}</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>{'rating': '', 'number_of_review': '', 'recommended_rate': '', 'items_sence': []}</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['ウェア・服', 'トップス', 'ジャージ', 'オリジナルス', 'ベッケンバウアー', 'クラシックス', 'アディカラー', 'アディカラー クラシック', 'プライムブルー', 'プライムグリーン', 'リサイクル素材', 'ベターコットン', 'BVB13']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://shop.adidas.jp/products/HQ6900/</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>['iconArrowCircleLeft戻る', 'トップ', 'ユニセックス', 'シューズ・靴', 'スニーカー', 'オリジナルス', 'アディマティック / Adimatic']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['https://shop.adidas.jp/products/HQ6900/', 'https://shop.adidas.jp/products/HQ6900/', 'https://shop.adidas.jp/products/HQ6900/', 'https://shop.adidas.jp/products/HQ6900/', 'https://shop.adidas.jp/products/HQ6900/', 'https://shop.adidas.jp/products/HQ6900/', 'https://shop.adidas.jp/products/HQ6900/', 'https://shop.adidas.jp/products/HQ6900/', 'https://shop.adidas.jp/products/HQ6900/']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'category_name': 'オリジナルス', 'product_name': 'アディマティック / Adimatic', 'product_price': '13,200', 'available_sizes': []}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{'description_title': 'クラシックなスケートシューズを斬新にアップデート。', 'general_description': '準備はいい？\u3000きっと誰もが待ち望んだシューズを今季リリース。これは、2000年代初期のオリジナルモデルへのオマージュを込めて、今の時代に合わせてアップデートした、アディマティックの復刻バージョン。まず、ツートンカラーのスエードのアッパーに、太めのシューレースでアクセントをプラス。そしてモダンなミッドソールに、デイリーライフに欠かせないグリップ力を発揮するトラディショナルなガムラバーアウトソールを合わせている。', 'general_itemization_description': ['レギュラーフィット', 'シューレースクロージャー', 'スエードアッパー', '合成ライニング', 'ガムラバーアウトソール', '商品番号：HQ6900', '色：コアブラック/クリスタルホワイト/ガム']}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>{'rating': '', 'number_of_review': '', 'recommended_rate': '', 'items_sence': []}</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['シューズ・靴', 'スニーカー', 'オリジナルス', 'ローカット', 'MBU97']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://shop.adidas.jp/products/IE6861/</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>['iconArrowCircleLeft戻る', 'トップ', 'ユニセックス', 'シューズ・靴', 'スニーカー', 'オリジナルス', 'JEREMY SCOTT', 'ジェレミー・スコット オパールウィング 4.0 / Jeremy Scott Opal Wings 4.0']</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['https://shop.adidas.jp/products/IE6861/', 'https://shop.adidas.jp/products/IE6861/', 'https://shop.adidas.jp/products/IE6861/', 'https://shop.adidas.jp/products/IE6861/', 'https://shop.adidas.jp/products/IE6861/', 'https://shop.adidas.jp/products/IE6861/', 'https://shop.adidas.jp/products/IE6861/', 'https://shop.adidas.jp/products/IE6861/', 'https://shop.adidas.jp/products/IE6861/', 'https://shop.adidas.jp/products/IE6861/', 'https://shop.adidas.jp/products/IE6861/', 'https://shop.adidas.jp/products/IE6861/', 'https://shop.adidas.jp/products/IE6861/', 'https://shop.adidas.jp/products/IE6861/']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'category_name': 'オリジナルス', 'product_name': 'ジェレミー・スコット オパールウィング 4.0 / Jeremy Scott Opal Wings 4.0', 'product_price': '30,800', 'available_sizes': []}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{'description_title': 'ジェレミー・スコットとのコラボから、羽根をあしらったフォーラムシューズが帰ってきた。', 'general_description': 'ジェレミー・スコットとアディダスは、数十年にわたりスタイルの探求を続けてきた。だから、ここで立ち止まる理由なんてない。新たなコラボレーションでは、デザイナー、ジェレミーを最もよく表すものの一つとなっている、あの羽根つきシューズを再現。リフレクター仕様の合成皮革アッパーで華やかに仕上げている。', 'general_itemization_description': ['ストラップ付きシューレースクロージャー', '合成皮革アッパー', 'テキスタイルライニング', 'ラバーアウトソール', '商品番号：IE6861', '色：フットウェアホワイト/フットウェアホワイト/コアブラック']}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>{'rating': '', 'number_of_review': '', 'recommended_rate': '', 'items_sence': []}</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['シューズ・靴', 'スニーカー', 'オリジナルス', 'JEREMY SCOTT', 'ローカット', 'MAQ38']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://shop.adidas.jp/products/HP8636/</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>['iconArrowCircleLeft戻る', 'トップ', 'ユニセックス', 'アウトドア', 'シューズ・靴', 'スポーツシューズ', 'アディダス テレックス', 'HEAT.RDY', 'テレックス ダローガ Two 13 HEAT. RDY ハイキング / Terrex Daroga Two 13 HEAT. RDY Hiking']</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['https://shop.adidas.jp/products/HP8636/', 'https://shop.adidas.jp/products/HP8636/', 'https://shop.adidas.jp/products/HP8636/', 'https://shop.adidas.jp/products/HP8636/', 'https://shop.adidas.jp/products/HP8636/', 'https://shop.adidas.jp/products/HP8636/', 'https://shop.adidas.jp/products/HP8636/', 'https://shop.adidas.jp/products/HP8636/', 'https://shop.adidas.jp/products/HP8636/']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'category_name': 'アディダス テレックス', 'product_name': 'テレックス ダローガ Two 13 HEAT. RDY ハイキング / Terrex Daroga Two 13 HEAT. RDY Hiking', 'product_price': '11,000', 'available_sizes': ['23.5cm', '24.0cm', '24.5cm', '25.0cm', '25.5cm', '26.0cm', '26.5cm', '27.0cm', '27.5cm', '28.0cm', '28.5cm', '29.0cm', '30.0cm']}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{'description_title': 'リサイクル素材を一部使用した、通気性に優れた軽量シューズ。', 'general_description': 'ビーチへの旅行、川遊び、晴れた日のハキングに共通することは？\u3000このアディダス ウォーターシューズが役に立つということ。速乾性があり、HEAT. RDYテクノロジーが足の風通しをよくしてくれる。ストレッチ性のあるヒールと足を包み込むフィット感が、快適な履き心地をもたらす。さらに、Traxionアウトソールは、地面でも水中でも確実なグリップ力を提供する。さっとバッグに入れて出掛けよう。この製品は、アッパーに50%以上のリサイクル素材を使用するなど、プラスチックゴミ ゼロを目指すアディダスの取り組みの一つをカタチにしたもの。', 'general_itemization_description': ['シューレースクロージャー', '通気性に優れたオープンメッシュアッパー', 'HEAT. RDY', 'EVAのミッドソール', 'テキスタイルライニング', 'Traxionアウトソール', 'アッパーには、リサイクル素材を50％以上使用', '商品番号：HP8636', '色：コアブラック/チョークホワイト/コアブラック']}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[{'page_link': 'https://shop.adidas.jp/item/?technology=heat_rdy', 'image_link': 'https://shop.adidas.jp/fp/images/taxonomy/code/TC1465', 'title': 'ヒートレディ', 'description': 'ヒートレディ通気性・速乾性・冷却性に優れ、アスリートの衣服内環境を快適に保つadidas最高峰のクーリング機能。身体をクールに快適に保つ除熱機能がアスリートのトレーニングをサポートする。'}]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>{'rating': '', 'number_of_review': '', 'recommended_rate': '', 'items_sence': []}</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['シューズ・靴', 'スポーツシューズ', 'アディダス テレックス', 'アウトドア', 'HEAT.RDY', 'ローカット', 'ヒートレディ', 'トラクション', 'ハイキング/トレッキング/登山', 'アウトドアシューズ・靴', 'LTG02']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://shop.adidas.jp/products/HP8640/</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>['iconArrowCircleLeft戻る', 'トップ', 'メンズ', 'アウトドア', 'シューズ・靴', 'スポーツシューズ', 'アディダス テレックス', 'HEAT.RDY', 'テレックス ボート HEAT. RDY ウォーター / Terrex Boat HEAT. RDY Water']</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['https://shop.adidas.jp/products/HP8640/', 'https://shop.adidas.jp/products/HP8640/', 'https://shop.adidas.jp/products/HP8640/', 'https://shop.adidas.jp/products/HP8640/', 'https://shop.adidas.jp/products/HP8640/', 'https://shop.adidas.jp/products/HP8640/', 'https://shop.adidas.jp/products/HP8640/', 'https://shop.adidas.jp/products/HP8640/', 'https://shop.adidas.jp/products/HP8640/']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{'category_name': 'アディダス テレックス', 'product_name': 'テレックス ボート HEAT. RDY ウォーター / Terrex Boat HEAT. RDY Water', 'product_price': '10,450', 'available_sizes': ['24.5cm', '25.0cm', '25.5cm', '26.0cm', '26.5cm', '27.0cm', '27.5cm', '28.0cm', '28.5cm', '29.0cm']}</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{'description_title': 'リサイクル素材を一部使用した、通気性に優れた軽量シューズ。', 'general_description': 'チューブで川下りをするとき、桟橋に立つとき、このアディダス シューズは、水辺まわりでトラクションを発揮する快適な一足。速乾性のアッパーとグリップ力を発揮するアウトソールを備えた作りで、濡れていたり、滑りやすい地面で足元をしっかり支えてくれる。この製品は、アッパーに50%以上のリサイクル素材を使用するなど、プラスチックゴミ ゼロを目指すアディダスの取り組みの一つをカタチにしたもの。', 'general_itemization_description': ['シューレースクロージャー', '通気性に優れたオープンメッシュアッパー', 'HEAT. RDY', 'EVAのミッドソール', 'テキスタイルライニング', 'Traxionアウトソール', 'アッパーには、リサイクル素材を50％以上使用', '商品番号：HP8640', '色：カレッジネイビー/チョークホワイト/コアブラック']}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[{'page_link': 'https://shop.adidas.jp/item/?technology=heat_rdy', 'image_link': 'https://shop.adidas.jp/fp/images/taxonomy/code/TC1465', 'title': 'ヒートレディ', 'description': 'ヒートレディ通気性・速乾性・冷却性に優れ、アスリートの衣服内環境を快適に保つadidas最高峰のクーリング機能。身体をクールに快適に保つ除熱機能がアスリートのトレーニングをサポートする。'}]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>{'rating': '', 'number_of_review': '', 'recommended_rate': '', 'items_sence': []}</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['シューズ・靴', 'スポーツシューズ', 'アディダス テレックス', 'アウトドア', 'HEAT.RDY', 'ローカット', 'ヒートレディ', 'トラクション', 'アウトドアシューズ・靴', 'LTG03']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://shop.adidas.jp/products/GV6903/</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>['iconArrowCircleLeft戻る', 'トップ', 'メンズ', 'ゴルフ', 'シューズ・靴', 'スポーツシューズ', 'ゴー・トゥ・スパイクレス 1 / Go-To Spikeless 1 Golf']</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['https://shop.adidas.jp/products/GV6903/', 'https://shop.adidas.jp/products/GV6903/', 'https://shop.adidas.jp/products/GV6903/', 'https://shop.adidas.jp/products/GV6903/', 'https://shop.adidas.jp/products/GV6903/', 'https://shop.adidas.jp/products/GV6903/', 'https://shop.adidas.jp/products/GV6903/', 'https://shop.adidas.jp/products/GV6903/', 'https://shop.adidas.jp/products/GV6903/']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{'category_name': 'ゴルフ', 'product_name': 'ゴー・トゥ・スパイクレス 1 / Go-To Spikeless 1 Golf', 'product_price': '19,800', 'available_sizes': ['24.5cm', '25.0cm', '25.5cm', '26.0cm', '26.5cm', '27.0cm', '27.5cm', '28.0cm', '28.5cm', '29.0cm', '29.5cm', '30.0cm']}</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{'description_title': 'リサイクル素材を一部使用した、カジュアルなゴルフシューズ。', 'general_description': 'ゴルフのために作られながらコースの外でも履くことができる、アディダスのゴルフシューズ。このシューズがあれば、他はいらない。カジュアルなスニーカースタイルにゴルフコースで必要なテクノロジーを合わせた、足を踏みしめる毎にモチベーションも上がる一足。グリーンを降りた直後には見えないカジュアルなルックスでコースを後にできる。どんなコンディションでも足を濡らさずドライに保つ防水性アッパーを搭載。フルレングスのBOOSTが一歩一歩にエネルギーを循環させる。', 'general_itemization_description': ['レギュラーフィット', 'シューレースクロージャー', '防水テキスタイル&amp;レザーアッパー', '成型ソックライナー', 'BOOSTのミッドソール', 'スパイクレスラバーアウトソール', '一年間防水プロテクション', 'アッパーには、リサイクル素材を50％以上使用', '商品番号：GV6903', '色：チョークホワイト/アルミナ/マジックベージュ', '生産国：China']}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[{'page_link': 'https://shop.adidas.jp/item/?technology=boost', 'image_link': 'https://shop.adidas.jp/fp/images/taxonomy/code/TC0003', 'title': 'ブースト', 'description': 'ブーストランニングに必要な反発力とクッション性を兼ね備えたミッドソール素材。温度環境による影響を受けにくいため、風や雪、太陽の日差し、雨など、あらゆる天候下で反発力を維持する。'}]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>{'rating': '', 'number_of_review': '', 'recommended_rate': '', 'items_sence': []}</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['シューズ・靴', 'スポーツシューズ', 'ゴルフ', 'ローカット', 'ブースト', '防水・撥水', 'ゴルフシューズ・靴', 'LIJ22']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://shop.adidas.jp/products/GV6905/</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>['iconArrowCircleLeft戻る', 'トップ', 'メンズ', 'ゴルフ', 'シューズ・靴', 'スポーツシューズ', 'ゴー・トゥ・スパイクレス 1 / Go-To Spikeless 1 Golf']</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['https://shop.adidas.jp/products/GV6905/', 'https://shop.adidas.jp/products/GV6905/', 'https://shop.adidas.jp/products/GV6905/', 'https://shop.adidas.jp/products/GV6905/', 'https://shop.adidas.jp/products/GV6905/', 'https://shop.adidas.jp/products/GV6905/', 'https://shop.adidas.jp/products/GV6905/', 'https://shop.adidas.jp/products/GV6905/', 'https://shop.adidas.jp/products/GV6905/', 'https://shop.adidas.jp/products/GV6905/', 'https://shop.adidas.jp/products/GV6905/', 'https://shop.adidas.jp/products/GV6905/']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{'category_name': 'ゴルフ', 'product_name': 'ゴー・トゥ・スパイクレス 1 / Go-To Spikeless 1 Golf', 'product_price': '19,800', 'available_sizes': ['24.5cm', '25.0cm', '25.5cm', '26.0cm', '26.5cm', '27.0cm', '27.5cm', '28.0cm', '28.5cm', '29.0cm', '29.5cm', '30.0cm']}</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{'description_title': 'リサイクル素材を一部使用した、カジュアルなゴルフシューズ。', 'general_description': 'ゴルフのために作られながらコースの外でも履くことができる、アディダスのゴルフシューズ。このシューズがあれば、他はいらない。カジュアルなスニーカースタイルにゴルフコースで必要なテクノロジーを合わせた、足を踏みしめる毎にモチベーションも上がる一足。グリーンを降りた直後には見えないカジュアルなルックスでコースを後にできる。どんなコンディションでも足を濡らさずドライに保つ防水性アッパーを搭載。フルレングスのBOOSTが一歩一歩にエネルギーを循環させる。', 'general_itemization_description': ['レギュラーフィット', 'シューレースクロージャー', '防水テキスタイル&amp;レザーアッパー', '成型ソックライナー', 'BOOSTのミッドソール', 'スパイクレスラバーアウトソール', '一年間防水プロテクション', 'アッパーには、リサイクル素材を50％以上使用', '商品番号：GV6905', '色：シルバー ペブル/オリーブストレータ/シルバー ペブル', '生産国：China']}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[{'page_link': 'https://shop.adidas.jp/item/?technology=boost', 'image_link': 'https://shop.adidas.jp/fp/images/taxonomy/code/TC0003', 'title': 'ブースト', 'description': 'ブーストランニングに必要な反発力とクッション性を兼ね備えたミッドソール素材。温度環境による影響を受けにくいため、風や雪、太陽の日差し、雨など、あらゆる天候下で反発力を維持する。'}]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>{'rating': '', 'number_of_review': '', 'recommended_rate': '', 'items_sence': []}</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['シューズ・靴', 'スポーツシューズ', 'ゴルフ', 'ローカット', 'ブースト', '防水・撥水', 'ゴルフシューズ・靴', 'LIJ22']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://shop.adidas.jp/products/GV6906/</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>['iconArrowCircleLeft戻る', 'トップ', 'メンズ', 'ゴルフ', 'シューズ・靴', 'スポーツシューズ', 'ゴー・トゥ・スパイクレス 1 / Go-To Spikeless 1 Golf']</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['https://shop.adidas.jp/products/GV6906/', 'https://shop.adidas.jp/products/GV6906/', 'https://shop.adidas.jp/products/GV6906/', 'https://shop.adidas.jp/products/GV6906/', 'https://shop.adidas.jp/products/GV6906/', 'https://shop.adidas.jp/products/GV6906/', 'https://shop.adidas.jp/products/GV6906/', 'https://shop.adidas.jp/products/GV6906/', 'https://shop.adidas.jp/products/GV6906/']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{'category_name': 'ゴルフ', 'product_name': 'ゴー・トゥ・スパイクレス 1 / Go-To Spikeless 1 Golf', 'product_price': '19,800', 'available_sizes': ['24.5cm', '25.0cm', '25.5cm', '26.0cm', '26.5cm', '27.0cm', '27.5cm', '28.0cm', '28.5cm', '29.0cm', '29.5cm', '30.0cm']}</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>{'description_title': 'リサイクル素材を一部使用した、カジュアルなゴルフシューズ。', 'general_description': 'ゴルフのために作られながらコースの外でも履くことができる、アディダスのゴルフシューズ。このシューズがあれば、他はいらない。カジュアルなスニーカースタイルにゴルフコースで必要なテクノロジーを合わせた、足を踏みしめる毎にモチベーションも上がる一足。グリーンを降りた直後には見えないカジュアルなルックスでコースを後にできる。どんなコンディションでも足を濡らさずドライに保つ防水性アッパーを搭載。フルレングスのBOOSTが一歩一歩にエネルギーを循環させる。', 'general_itemization_description': ['レギュラーフィット', 'シューレースクロージャー', '防水テキスタイル&amp;レザーアッパー', '成型ソックライナー', 'BOOSTのミッドソール', 'スパイクレスラバーアウトソール', '一年間防水プロテクション', 'アッパーには、リサイクル素材を50％以上使用', '商品番号：GV6906', '色：カーボン/カーボン/グレーツー', '生産国：China']}</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[{'page_link': 'https://shop.adidas.jp/item/?technology=boost', 'image_link': 'https://shop.adidas.jp/fp/images/taxonomy/code/TC0003', 'title': 'ブースト', 'description': 'ブーストランニングに必要な反発力とクッション性を兼ね備えたミッドソール素材。温度環境による影響を受けにくいため、風や雪、太陽の日差し、雨など、あらゆる天候下で反発力を維持する。'}]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>{'rating': '', 'number_of_review': '', 'recommended_rate': '', 'items_sence': []}</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['シューズ・靴', 'スポーツシューズ', 'ゴルフ', 'ローカット', 'ブースト', '防水・撥水', 'ゴルフシューズ・靴', 'LIJ22']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://shop.adidas.jp/products/H03678/</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>['iconArrowCircleLeft戻る', 'トップ', 'メンズ', 'ゴルフ', 'シューズ・靴', 'スポーツシューズ', 'ゴー・トゥ・スパイクレス 1 / Go-To Spikeless 1 Golf']</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['https://shop.adidas.jp/products/H03678/', 'https://shop.adidas.jp/products/H03678/', 'https://shop.adidas.jp/products/H03678/', 'https://shop.adidas.jp/products/H03678/', 'https://shop.adidas.jp/products/H03678/', 'https://shop.adidas.jp/products/H03678/', 'https://shop.adidas.jp/products/H03678/', 'https://shop.adidas.jp/products/H03678/', 'https://shop.adidas.jp/products/H03678/']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{'category_name': 'ゴルフ', 'product_name': 'ゴー・トゥ・スパイクレス 1 / Go-To Spikeless 1 Golf', 'product_price': '19,800', 'available_sizes': ['23.7cm', '24.0cm', '24.5cm', '25.0cm', '25.5cm', '26.0cm', '26.5cm', '27.0cm', '27.5cm', '28.0cm', '28.5cm', '29.0cm', '29.5cm', '30.0cm', '30.5cm', '31.5cm', '32.5cm']}</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>{'description_title': 'リサイクル素材を一部使用した、カジュアルなゴルフシューズ。', 'general_description': 'ゴルフのために作られながらコースの外でも履くことができる、アディダスのゴルフシューズ。このシューズがあれば、他はいらない。カジュアルなスニーカースタイルにゴルフコースで必要なテクノロジーを合わせた、足を踏みしめる毎にモチベーションも上がる一足。グリーンを降りた直後には見えないカジュアルなルックスでコースを後にできる。どんなコンディションでも足を濡らさずドライに保つ防水性アッパーを搭載。フルレングスのBOOSTが一歩一歩にエネルギーを循環させる。', 'general_itemization_description': ['レギュラーフィット', 'シューレースクロージャー', '防水テキスタイル&amp;レザーアッパー', '成型ソックライナー', 'BOOSTのミッドソール', 'スパイクレスラバーアウトソール', '一年間防水プロテクション', 'アッパーには、リサイクル素材を50％以上使用', '商品番号：H03678', '色：クルーネイビー/カレッジネイビー/ブルーフュージョン', '生産国：China']}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[{'page_link': 'https://shop.adidas.jp/item/?technology=boost', 'image_link': 'https://shop.adidas.jp/fp/images/taxonomy/code/TC0003', 'title': 'ブースト', 'description': 'ブーストランニングに必要な反発力とクッション性を兼ね備えたミッドソール素材。温度環境による影響を受けにくいため、風や雪、太陽の日差し、雨など、あらゆる天候下で反発力を維持する。'}]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>{'rating': '', 'number_of_review': '', 'recommended_rate': '', 'items_sence': []}</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['シューズ・靴', 'スポーツシューズ', 'ゴルフ', 'ローカット', 'ブースト', '防水・撥水', 'ゴルフシューズ・靴', 'LIJ22']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://shop.adidas.jp/products/EG1758/</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>['iconArrowCircleLeft戻る', 'トップ', 'ユニセックス', 'シューズ・靴', 'サンダル', 'スポーツウェア', 'スポーツコレクション', 'アディレッタアクア', 'アディレッタ アクア サンダル / Adilette Aqua Slides']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['https://shop.adidas.jp/products/EG1758/', 'https://shop.adidas.jp/products/EG1758/', 'https://shop.adidas.jp/products/EG1758/', 'https://shop.adidas.jp/products/EG1758/', 'https://shop.adidas.jp/products/EG1758/', 'https://shop.adidas.jp/products/EG1758/', 'https://shop.adidas.jp/products/EG1758/', 'https://shop.adidas.jp/products/EG1758/', 'https://shop.adidas.jp/products/EG1758/']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{'category_name': 'スポーツウェア', 'product_name': 'アディレッタ アクア サンダル / Adilette Aqua Slides', 'product_price': '2,970', 'available_sizes': ['22.5cm', '23.5cm', '24.5cm', '25.5cm', '26.5cm', '27.5cm', '28.5cm', '29.5cm', '30.5cm', '31.5cm']}</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>{'description_title': 'プールの後に大活躍なクッション性に優れたサンダル。', 'general_description': '泳いだ後のシャワータイムにぴったりな、スポーツサンダル。シンプルでつややかなスリッポンの作りに、アディダスのDNAを継承するスリーストライプを配している。疲れた足に、クッション性のあるソフトでぜいたくな履き心地を。', 'general_itemization_description': ['レギュラーフィット', 'スリッポン構造', '一体型の成型EVAアッパー', 'EVAアウトソール', 'ソフトなCloudfoamフットベッド', '軽い履き心地の速乾素材', '商品番号：EG1758', '色：コアブラック/ゴールドメタリック/コアブラック', '生産国：India,Vietnam']}</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[{'page_link': 'https://shop.adidas.jp/item/?technology=cloudfoam', 'image_link': 'https://shop.adidas.jp/fp/images/taxonomy/code/TC0300', 'title': 'クラウドフォーム', 'description': 'クラウドフォーム快適さを追求し、やわらかい踏み心地を提供するミッドソール素材。'}]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>{'rating': '4.4', 'number_of_review': '58', 'recommended_rate': '98%', 'items_sence': ['4.4 / 5', '2.6 / 5', '2.9 / 5', '3.8 / 5', '3.7 / 5']}</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[{'rating': '4', 'date': '2020年4月28日', 'title': '購入するなら大きめを', 'description': '値段のわりに素材感もしっかりしていて、満足しています。なにより3ストライプがかわいいです。全体的にタイトに感じるつくりだと思います。「足のサイズ+1~1.5cm」をオススメします。', 'reviewer_id': 'howiroll '}, {'rating': '4', 'date': '2019年11月21日', 'title': '大きめがいいかも', 'description': '軽くてとても満足ですが、他の方がレビューしているように 甲高の方は大きめをセレクトされた方がいいかもしれません。私は甲高なので、ワンサイズ大きめを履いていい感じです。', 'reviewer_id': 'sora2019 '}, {'rating': '4', 'date': '2019年5月26日', 'title': 'ちょっとしたお出かけ', 'description': '安めのサンダルを探していてコスパが強いのはadidasさんだと思い購入。インソールの形状が足の形にそう様に凹凸が少しありいい感じです。', 'reviewer_id': 'ttttt '}, {'rating': '5', 'date': '2020年4月26日', 'title': 'おすすめです', 'description': 'わたしの足のサイズは26cmですが、他の方のレビューを読ませていただき、27.5cmを購入いたしました。他の方のレビュー通り少し大きめが良いようでピッタリでした。安くておしゃれでいいと思います。', 'reviewer_id': 'Jacqueline '}, {'rating': '5', 'date': '2021年7月1日', 'title': '20年の経験！サンダルならコレっ！', 'description': '20年ほど職場の室内履きとして使っています。履き方にもよりますが、5年くらいで新しいもの変えて履き続けています。何より、足が疲れにくいのがイイですっ！サイズは、チョット大きめが個人的にお勧めです。', 'reviewer_id': 'カリー＆トンピー '}, {'rating': '5', 'date': '2022年7月25日', 'title': '履き心地マル', 'description': 'ぺったんこだし、ちょっとベランダや庭で履くくらいの気持ちで購入しました。実際に履いてみたら足の裏にフィットしてとても履きやすく驚きでした。さすがですね。散歩や近所への買い物に重宝しています。子供のサッカー遠征時に持たせようと思っています。', 'reviewer_id': 'ハムサラミ '}, {'rating': '5', 'date': '2022年8月14日', 'title': '街使いにもシックに決まります', 'description': 'まるで超有名プロサッカー選手が新規契約シューズを一定期間ブラックアウト状態で使うミステリアス仕様なアディレッタです。他の方々のレビュー同様に１サイズＵＰでの購入必須かと感じます。 ', 'reviewer_id': 'FUJ28 '}, {'rating': '5', 'date': '2020年5月2日', 'title': 'サイズ', 'description': 'サイズを凄く心配しましたが、いつも靴は、24.5〜25.0ですが、レビューを見て、25.5にしました、良かったです。夏場はもちろんの事、靴下をはいても素敵だと思いました。真っ黒を購入したので、靴下でも遊べそうです。色違いも買いたいと思います。', 'reviewer_id': 'momo6 '}, {'rating': '3', 'date': '2022年10月30日', 'title': '', 'description': '自分の足のサイズより大きめに設定して購入したほうが良い。実際に大きめのサイズを購入したが、小さいかった。', 'reviewer_id': 'mk01 '}, {'rating': '5', 'date': '2022年5月31日', 'title': '履き心地', 'description': '普段は24.5センチですが、今回は少し大きめの25.5センチを購入しました！靴下を履くとちょうどよく、裸足だと少し大きかったですが問題なし！もっと早く購入すればよかったです（笑）', 'reviewer_id': 'miho '}]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['シューズ・靴', 'サンダル', 'スポーツウェア', '水泳', 'スポーツコレクション', 'アディレッタ', 'エッセンシャルズ', 'アディレッタアクア', 'クラウドフォーム', '水泳シューズ・靴', 'DBF11']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://shop.adidas.jp/products/HQ4242/</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>['iconArrowCircleLeft戻る', 'トップ', 'ユニセックス', 'シューズ・靴', 'サンダル', 'オリジナルス', 'アディレッタ', 'アディレッタ アドベンチャー サンダル / Adilette Adventure Sandals']</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['https://shop.adidas.jp/products/HQ4242/', 'https://shop.adidas.jp/products/HQ4242/', 'https://shop.adidas.jp/products/HQ4242/', 'https://shop.adidas.jp/products/HQ4242/', 'https://shop.adidas.jp/products/HQ4242/', 'https://shop.adidas.jp/products/HQ4242/', 'https://shop.adidas.jp/products/HQ4242/', 'https://shop.adidas.jp/products/HQ4242/', 'https://shop.adidas.jp/products/HQ4242/']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{'category_name': 'オリジナルス', 'product_name': 'アディレッタ アドベンチャー サンダル / Adilette Adventure Sandals', 'product_price': '7,700', 'available_sizes': ['22.5cm', '23.5cm', '24.5cm', '25.5cm', '26.5cm', '27.5cm', '28.5cm', '29.5cm', '30.5cm']}</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>{'description_title': 'リサイクル素材を一部使用した、メモリーフォームを備えたアウトドア用サンダル。', 'general_description': '優れたアウトドアギアよりも唯一秀でているといっても過言ではないのが、このアディダス サンダルの履き心地の良さ。快適な反発力を搭載したこのサンダルは、ウェビングとメッシュのアッパーと、調節可能なヒールストラップを備えている。メモリーフォーム フットベッドが足の形状を記憶し、一歩一歩に高い反発力をもたらす。面ファスナー式ストラップでフィット感を調節でき、トップに小さなアディダスロゴをあしらっている。', 'general_itemization_description': ['レギュラーフィット', '面ファスナー式ストラップ', 'ウーブンウェビング / メッシュアッパー', 'テキスタイルライニング', '形状記憶性能を持つメモリーフォームフットベッド', 'EVAユニットソール', 'アッパーには、リサイクル素材を50％以上使用', '商品番号：HQ4242', '色：フットウェアホワイト/コアホワイト/ワンダータープ', '生産国：Vietnam']}</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>{'rating': '', 'number_of_review': '', 'recommended_rate': '', 'items_sence': []}</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['シューズ・靴', 'サンダル', 'オリジナルス', 'アディレッタ', 'LSH56']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
